--- a/kravspec.xlsx
+++ b/kravspec.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Skole\SoftwareEngineering\GruppeProsjekt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IT\2 året\IT2\SE\SoftwareEngineering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E82CFED-6F10-4E82-A377-08A4D38A9603}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77694F52-CCD8-439A-B3B1-712CFCF1F3C8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{08338A6A-7FFF-44D1-BADB-7B27C7F12FCE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{08338A6A-7FFF-44D1-BADB-7B27C7F12FCE}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -54,9 +54,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -83,8 +91,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,43 +411,45 @@
   <dimension ref="B1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.21875" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" customWidth="1"/>
-    <col min="3" max="3" width="16.88671875" customWidth="1"/>
-    <col min="4" max="4" width="19.5546875" customWidth="1"/>
-    <col min="5" max="5" width="15.77734375" customWidth="1"/>
+    <col min="1" max="1" width="18.1796875" customWidth="1"/>
+    <col min="2" max="2" width="15.36328125" customWidth="1"/>
+    <col min="3" max="3" width="16.90625" customWidth="1"/>
+    <col min="4" max="4" width="19.54296875" customWidth="1"/>
+    <col min="5" max="5" width="15.81640625" customWidth="1"/>
+    <col min="6" max="6" width="13.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
+    <row r="1" spans="2:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="2:6" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" ht="29.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:6" ht="27.65" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:6" ht="27.65" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>